--- a/AccountManage/static/excel/schedule.xlsx
+++ b/AccountManage/static/excel/schedule.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,43 +496,43 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>语音房告白墙</t>
+          <t>【技术需求】接美颜中台 &amp; 优化美颜效果</t>
         </is>
       </c>
       <c r="D2" s="1" t="n">
-        <v>45008</v>
+        <v>44973</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>45015</v>
+        <v>44984</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>孙宇湉</t>
+          <t>黄培然</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>吴灶洲</t>
+          <t>吴欢</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>林传辉4</t>
+          <t>林传辉2</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>胡佳婷8.5；邓喜健2</t>
+          <t>邓喜健4</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>梁威平4+1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>关啟华2；丁拥0.5</t>
+          <t>徐彬14</t>
         </is>
       </c>
     </row>
@@ -549,33 +549,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>语音房礼物栏二期优化</t>
+          <t>IM交互优化</t>
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45002</v>
+        <v>44986</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>45006</v>
+        <v>44991</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>孙宇湉</t>
+          <t>黄培然</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>姚振兴</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>张振东2</t>
+          <t>李龙宾2；吴佳冰3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>许英俊5</t>
+          <t>胡佳婷10</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -585,8 +585,11 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>李启华2.5</t>
-        </is>
+          <t>关啟华2</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -602,14 +605,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>发现页</t>
+          <t>1V1音视频通话</t>
         </is>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45009</v>
+        <v>44985</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45015</v>
+        <v>44991</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -618,28 +621,31 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>邓喜健</t>
+          <t>李汇丰</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>王承庆4</t>
+          <t>林传辉4；张振东4；彭顺康2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>李松6.5</t>
+          <t>邓喜健9.5；李汇丰10.5；舒强睿7；李勇10.5；郭俊杰2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>刘俊杰2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>陈侠专1</t>
-        </is>
+          <t>陈振宇；李伟宙7+3</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -655,44 +661,47 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>YO语音push优化</t>
+          <t>福利大厅改版&amp;任务调整</t>
         </is>
       </c>
       <c r="D5" s="1" t="n">
-        <v>45006</v>
+        <v>44985</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>45009</v>
+        <v>44991</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>劳若蘅</t>
+          <t>马坚鑫</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>邓喜健</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>张振东3</t>
+          <t>王承庆3；何彩梅2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>刘志鸿4</t>
+          <t>刘志鸿4.5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>林永保4.5；陈安妮11</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>朱国升2；李成1；林武材3；张俊锋2；金龙</t>
-        </is>
+          <t>陈侠专13+2；丁拥2+1</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -708,14 +717,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>语音房房间管理及玩法权限</t>
+          <t>基础频道优化</t>
         </is>
       </c>
       <c r="D6" s="1" t="n">
-        <v>45005</v>
+        <v>44987</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>45013</v>
+        <v>44991</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -724,28 +733,31 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>舒强睿</t>
+          <t>许乐峰</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>黄建硕3</t>
+          <t>黄建硕3；彭顺康3</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>舒强睿6；李汇丰6</t>
+          <t>王淦鑫11.5；梁国杰10.5；刘志鸿6.5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>陈龙龙</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>郭利平1；朱国升1；卢志尧</t>
-        </is>
+          <t>朱国升4</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -761,33 +773,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交友移动端礼物栏互动tab</t>
+          <t>用户、房间关注及语音房优化</t>
         </is>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45006</v>
+        <v>44984</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>45015</v>
+        <v>44987</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>许凯琪</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>王世界</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>张振东4</t>
+          <t>黄建硕3</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>郭俊杰3.5</t>
+          <t>陈学宇10</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -797,7 +809,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>丁拥2</t>
+          <t>曾远4+1</t>
         </is>
       </c>
     </row>
@@ -814,33 +826,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>搜索优化</t>
+          <t>用户反馈优化</t>
         </is>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45009</v>
+        <v>44979</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>45013</v>
+        <v>44984</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>梁赐恒</t>
+          <t>劳若蘅</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>姚振兴</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>吴佳冰2</t>
+          <t>彭顺康3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>陈学宇5.5</t>
+          <t>郭俊杰3</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -850,7 +862,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>陈高洁3+1；何清亮0.5；赖鸿智</t>
+          <t>陈高洁1</t>
         </is>
       </c>
     </row>
@@ -862,38 +874,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Android/iOS</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>关注优化</t>
+          <t>直播间音波的基础能力搭建</t>
         </is>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45012</v>
+        <v>44981</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>45015</v>
+        <v>44984</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>梁赐恒</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>廖津津</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>吴佳冰2</t>
+          <t>王承庆1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>李勇5.5</t>
+          <t>许英俊4</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -903,7 +915,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>曾远2</t>
+          <t>陈振宇3</t>
         </is>
       </c>
     </row>
@@ -915,19 +927,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Android/iOS</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>开黑车队</t>
+          <t>跨厅pk优化pk动效</t>
         </is>
       </c>
       <c r="D10" s="1" t="n">
-        <v>45012</v>
+        <v>44984</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>45015</v>
+        <v>44985</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -936,27 +948,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>梁国杰</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>黄建硕2；彭顺康2</t>
+          <t>张振东1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>梁国杰3</t>
+          <t>许英俊2.5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>陈锴林；林俊坚</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>李伟宙7+2；黄元栋1</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -968,23 +980,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Android/iOS</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>首页标签调整</t>
+          <t>娱乐Tab加载优化</t>
         </is>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45013</v>
+        <v>44987</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>45014</v>
+        <v>44991</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>黄培然</t>
+          <t>陈学宇</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -994,12 +1006,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>彭顺康1</t>
+          <t>陈学宇</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>刘志鸿2.5</t>
+          <t>陈学宇3</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1021,19 +1033,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Android/iOS</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>房间优化</t>
+          <t>房间上下滑的体验优化</t>
         </is>
       </c>
       <c r="D12" s="1" t="n">
-        <v>45008</v>
+        <v>44981</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>45013</v>
+        <v>44985</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1047,12 +1059,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>黄健硕0</t>
+          <t>王承庆2；林传辉1</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>曾衍4；梁国杰0.5</t>
+          <t>陈学宇1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1074,33 +1086,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Android/iOS</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>诺亚方舟适配移动端</t>
+          <t>【Android技术需求】统一框架代码独立</t>
         </is>
       </c>
       <c r="D13" s="1" t="n">
-        <v>45009</v>
+        <v>44988</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>45013</v>
+        <v>44991</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>张洋轲</t>
+          <t>舒强睿；梁国杰</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>李龙宾1</t>
+          <t>舒强睿</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>邓喜健1+1</t>
+          <t>舒强睿4</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1110,7 +1127,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>黄元栋2+1</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1127,43 +1144,43 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>动态直播间背景</t>
+          <t>【插入需求】福利大厅改版推广活动</t>
         </is>
       </c>
       <c r="D14" s="1" t="n">
-        <v>45007</v>
+        <v>44988</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>45009</v>
+        <v>44992</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
+          <t>欧泳楠</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>许英俊</t>
+          <t>刘志鸿</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>王承庆2</t>
+          <t>韦小虹1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>许英俊4；李松7</t>
+          <t>刘志鸿4</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>林立坚4；陈楷林3</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>陈振宇2</t>
+          <t>关啟华4；曾文帜6+1；余连珠1.5+0.5</t>
         </is>
       </c>
     </row>
@@ -1180,18 +1197,18 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>房间公屏优化</t>
+          <t>【插入需求】bs2域名替换bos源站域名</t>
         </is>
       </c>
       <c r="D15" s="1" t="n">
-        <v>44998</v>
+        <v>44984</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>45000</v>
+        <v>44986</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
+          <t>陈振宇</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1201,12 +1218,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>林传辉1</t>
+          <t>吴佳冰2</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>胡佳婷0.5</t>
+          <t>陈学宇0.5</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1216,7 +1233,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>关啟华1</t>
+          <t>陈振宇0.5</t>
         </is>
       </c>
     </row>
@@ -1233,18 +1250,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>基础房&amp;宝贝房进频速度优化</t>
+          <t>历史版本合入验证分支</t>
         </is>
       </c>
       <c r="D16" s="1" t="n">
-        <v>45007</v>
+        <v>44980</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>45009</v>
+        <v>44981</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>吴欢</t>
+          <t>梁赐恒</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1254,12 +1271,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>林传辉2</t>
+          <t>林传辉1；王承庆1；张振东1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>梁国杰7</t>
+          <t>舒强睿2</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1268,538 +1285,6 @@
         </is>
       </c>
       <c r="K16" t="inlineStr">
-        <is>
-          <t>关啟华1；何清亮1+1</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>事件通知中心由Rxbus发送 &amp;&amp; 升级publess版本</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>45008</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>邓喜健</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>黄建硕3</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>邓喜健4</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>gif动图假造框架统一和优化</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>45001</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>陈嘉雯</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>彭顺康2</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>李勇4</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>【Android技术需求】hydra去除Cronet网络库依赖</t>
-        </is>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>45007</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>45009</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>李汇丰</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>吴佳冰2</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>李汇丰2</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>模拟器加载Bos图片优化</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>45000</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>45001</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>陈学宇</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>吴佳冰1</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>陈学宇2.5</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>【Android技术需求】直播间渲染优化一期</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>45006</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>45009</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>王淦鑫</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>彭顺康3</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>王淦鑫9；陈学宇1.5</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>升级海度sdk，适配动态下发证书</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>45009</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>黄培然</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>黄培然</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>许英俊2</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>曾纪胜</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>【Android技术需求】统一框架代码独立 第二阶段</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>45000</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>45008</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>舒强睿</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>王承庆2.5</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>舒强睿3.5</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>【Android技术需求】git代码仓库体积优化</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>44995</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>45013</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>李汇丰</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>李汇丰</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>李汇丰2</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>反馈-分析-闭环-需求</t>
-        </is>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>45013</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>黄培然</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>郭俊杰</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>郭俊杰2</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Android/iOS</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>历史版本合入验证分支</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>44995</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>45000</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>梁赐恒</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>林传辉1
-彭顺康1
-吴佳冰1</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>邓喜健1</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1816,7 +1301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1889,50 +1374,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Android/iOS</t>
+          <t>iOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>历史版本合入验证分支</t>
+          <t>【技术需求】接美颜中台 &amp; 优化美颜效果</t>
         </is>
       </c>
       <c r="D2" s="1" t="n">
-        <v>44995</v>
+        <v>44977</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>45000</v>
+        <v>44984</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>梁赐恒</t>
+          <t>黄培然</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>吴欢</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>林传辉1
-彭顺康1
-吴佳冰1</t>
+          <t>android</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>邓喜健1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>吴欢6.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>易海洋16</t>
         </is>
       </c>
     </row>
@@ -1949,23 +1427,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>语音房告白墙</t>
+          <t>IM交互优化</t>
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45009</v>
+        <v>44986</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>45015</v>
+        <v>44991</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>孙宇湉</t>
+          <t>黄培然</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>吴灶洲</t>
+          <t>姚振兴</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1975,17 +1453,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>吴灶洲6.5；周衡2</t>
+          <t>姚振兴7.5；周衡2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>梁威平</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>关啟华；丁拥</t>
+          <t>关啟华2</t>
         </is>
       </c>
     </row>
@@ -2002,23 +1480,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>语音房礼物栏二期优化</t>
+          <t>IV1音视频通话</t>
         </is>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45002</v>
+        <v>44985</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45006</v>
+        <v>44991</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>孙宇湉</t>
+          <t>黄培然</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>李汇丰</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2028,7 +1506,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>吴灶洲3</t>
+          <t>姚振兴4；吴欢12.5；廖津津13.5；蓝方龙7.5；王世界7.5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2038,7 +1516,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>李启华</t>
+          <t>陈振宇；李伟宙7+3</t>
         </is>
       </c>
     </row>
@@ -2055,18 +1533,18 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>发现页及社区功能</t>
+          <t>福利大厅改版&amp;任务调整</t>
         </is>
       </c>
       <c r="D5" s="1" t="n">
-        <v>45009</v>
+        <v>44985</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>45015</v>
+        <v>44991</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>黄培然</t>
+          <t>马坚鑫</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2081,17 +1559,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>朱泳嘉6.5</t>
+          <t>周衡4.5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>刘俊杰</t>
+          <t>林永保4.5；陈安妮10.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>陈侠专</t>
+          <t>陈侠专12+2</t>
         </is>
       </c>
     </row>
@@ -2108,23 +1586,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>YO语音push优化</t>
+          <t>基础频道优化</t>
         </is>
       </c>
       <c r="D6" s="1" t="n">
-        <v>45006</v>
+        <v>44987</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>45009</v>
+        <v>44991</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>劳若蘅</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>许乐峰</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2134,7 +1612,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>姚振兴4</t>
+          <t>朱泳嘉6.5；许乐峰14；王世界6.5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -2144,7 +1622,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>朱国升；李成；林武材；张俊锋；金龙</t>
+          <t>朱国升4</t>
         </is>
       </c>
     </row>
@@ -2161,14 +1639,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>语音房房间管理及玩法权限</t>
+          <t>用户、房间关注及语音房优化</t>
         </is>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45008</v>
+        <v>44984</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>45013</v>
+        <v>44987</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -2177,7 +1655,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>舒强睿</t>
+          <t>王世界</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2187,17 +1665,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>王世界8.5；周衡2.5</t>
+          <t>王世界2；朱泳嘉9；吴灶洲3</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>陈龙龙</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>郭利平；朱国升；卢志尧</t>
+          <t>曾远4+1</t>
         </is>
       </c>
     </row>
@@ -2214,18 +1692,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交友移动端礼物栏互动tab</t>
+          <t>用户反馈优化</t>
         </is>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45006</v>
+        <v>44979</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>45015</v>
+        <v>44984</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>许凯琪</t>
+          <t>劳若蘅</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2240,7 +1718,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>吴灶洲3.5</t>
+          <t>吴灶洲3</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2250,7 +1728,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>丁拥</t>
+          <t>陈高洁1</t>
         </is>
       </c>
     </row>
@@ -2267,23 +1745,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>搜索优化</t>
+          <t>【插入需求】福利大厅改版推广活动</t>
         </is>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45009</v>
+        <v>44988</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>45013</v>
+        <v>44992</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>梁赐恒</t>
+          <t>欧泳楠</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>姚振兴</t>
+          <t>刘志鸿</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2293,17 +1771,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>姚振兴5.5</t>
+          <t>周衡4</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>林立坚4；陈楷林3</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>陈高洁；赖鸿智</t>
+          <t>关啟华4；曾文帜6+1；余连珠1.5+0.5</t>
         </is>
       </c>
     </row>
@@ -2320,23 +1798,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>关注优化</t>
+          <t>【插入需求】bs2域名替换bos源站域名</t>
         </is>
       </c>
       <c r="D10" s="1" t="n">
-        <v>45012</v>
+        <v>44984</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>45015</v>
+        <v>44986</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>梁赐恒</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>廖津津</t>
+          <t>陈振宇</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2346,7 +1819,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>廖津津7</t>
+          <t>周衡0.5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2356,7 +1829,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>曾远</t>
+          <t>陈振宇0.5</t>
         </is>
       </c>
     </row>
@@ -2373,23 +1846,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>开黑车队</t>
+          <t>历史版本合入验证分支</t>
         </is>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45012</v>
+        <v>44980</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>45015</v>
+        <v>44981</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
+          <t>梁赐恒</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>梁国杰</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2399,583 +1872,15 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>周衡3.5</t>
+          <t>吴灶洲2</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>陈锴林；林俊坚</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
-        <is>
-          <t>李伟宙</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>首页标签调整</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>45013</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>45014</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>黄培然</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>许乐峰2.5</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>房间优化</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>45008</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>45013</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>陈嘉雯</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>王世界1；朱泳嘉1；周衡1.5；许乐峰1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>诺亚方舟适配移动端</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>45009</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>45013</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>张洋轲</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>蓝方龙1+1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>黄元栋</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>【技术需求】动态直播间背景</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>45006</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>45009</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>陈嘉雯</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>许英俊</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>许乐峰6.5</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>陈振宇</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>基础房&amp;宝贝房进频速度优化</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>45007</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>45009</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>吴欢</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>吴欢3</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>关啟华；何清亮</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>【技术需求】房间公屏优化</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>44998</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>45000</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>陈嘉雯</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>廖津津0.5</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>关啟华</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>跨厅pk优化pk动效</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>45001</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>45002</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>陈嘉雯</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>张振东1</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>廖津津3</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Yo语音宿主去掉baseservice组件</t>
-        </is>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>45013</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>王世界</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>王世界</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>王世界1.5</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>直播间音波的基础能力搭建</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>45001</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>陈嘉雯</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>王承庆1</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>蓝方龙3</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>陈振宇</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>统一框架瘦身&amp;优化</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>45008</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>吴欢</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>吴欢5.5</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>历史版本合入验证分支</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>44995</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>45000</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>梁赐恒</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>朱泳嘉1</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/AccountManage/static/excel/schedule.xlsx
+++ b/AccountManage/static/excel/schedule.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,11 @@
           <t>后台</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>测试分端</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,43 +501,40 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>【技术需求】接美颜中台 &amp; 优化美颜效果</t>
+          <t>财富墙与周星墙优化</t>
         </is>
       </c>
       <c r="D2" s="1" t="n">
-        <v>44973</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>44984</v>
+        <v>45058</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>黄培然</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>吴欢</t>
+          <t>孙宇湉</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>林传辉2</t>
+          <t>王承庆</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>邓喜健4</t>
+          <t>李松12</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>林永保3+0.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>徐彬14</t>
+          <t>陈高洁0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Android</t>
         </is>
       </c>
     </row>
@@ -549,47 +551,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IM交互优化</t>
+          <t>告白动效调整与告白礼物飞机广播</t>
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>44986</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>44991</v>
+        <v>45061</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>黄培然</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>姚振兴</t>
+          <t>孙宇湉</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>李龙宾2；吴佳冰3</t>
+          <t>张振东</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>胡佳婷10</t>
+          <t>胡佳婷3</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>梁威平0.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>关啟华2</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
+          <t>郑俊1；陈侠专1+0.5;丁拥0.5</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -605,47 +601,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1V1音视频通话</t>
+          <t xml:space="preserve"> LOGO&amp;默认头像调整</t>
         </is>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44985</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>44991</v>
+        <v>45063</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>黄培然</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>李汇丰</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>林传辉4；张振东4；彭顺康2</t>
+          <t>林传辉</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>邓喜健9.5；李汇丰10.5；舒强睿7；李勇10.5；郭俊杰2</t>
+          <t>梁国杰2.5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>张海丰1.5+0.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>陈振宇；李伟宙7+3</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>2</v>
+          <t>陈高洁1+1</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -661,47 +651,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>福利大厅改版&amp;任务调整</t>
+          <t>交友&amp;宝贝送礼数量列表优化</t>
         </is>
       </c>
       <c r="D5" s="1" t="n">
-        <v>44985</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>44991</v>
+        <v>45056</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>马坚鑫</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>邓喜健</t>
+          <t>许凯琪</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>王承庆3；何彩梅2</t>
+          <t>张振东</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>刘志鸿4.5</t>
+          <t>舒强睿2.5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>林永保4.5；陈安妮11</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>陈侠专13+2；丁拥2+1</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
+          <t>李启华1+1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -717,33 +701,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>基础频道优化</t>
+          <t>Yo语音IM举报用户uid区分</t>
         </is>
       </c>
       <c r="D6" s="1" t="n">
-        <v>44987</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>44991</v>
+        <v>45044</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>许乐峰</t>
+          <t>黄培然</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>黄建硕3；彭顺康3</t>
+          <t>张振东</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>王淦鑫11.5；梁国杰10.5；刘志鸿6.5</t>
+          <t>李勇1.5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -753,11 +729,13 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>朱国升4</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
+          <t>陈振宇1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -773,33 +751,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>用户、房间关注及语音房优化</t>
+          <t>上下滑逻辑调整</t>
         </is>
       </c>
       <c r="D7" s="1" t="n">
-        <v>44984</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>44987</v>
+        <v>45051</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>王世界</t>
+          <t>黄培然</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>黄建硕3</t>
+          <t>黄建硕</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>陈学宇10</t>
+          <t>陈学宇3.5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -809,7 +779,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>曾远4+1</t>
+          <t>陈高洁1；何清亮2+1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Android</t>
         </is>
       </c>
     </row>
@@ -826,43 +801,40 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>用户反馈优化</t>
+          <t>隐私合规需求</t>
         </is>
       </c>
       <c r="D8" s="1" t="n">
-        <v>44979</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>44984</v>
+        <v>45057</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>劳若蘅</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+          <t>黄培然</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>林传辉</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>舒强睿3</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>彭顺康3</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>郭俊杰3</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>陈高洁1</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Android</t>
         </is>
       </c>
     </row>
@@ -879,43 +851,40 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>直播间音波的基础能力搭建</t>
+          <t>安卓端分辨率较大问题的解决</t>
         </is>
       </c>
       <c r="D9" s="1" t="n">
-        <v>44981</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>44984</v>
+        <v>45051</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>陈嘉雯</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>黄建硕</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>王淦鑫4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>王承庆1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>许英俊4</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>陈振宇3</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Android</t>
         </is>
       </c>
     </row>
@@ -927,48 +896,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Android/iOS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>跨厅pk优化pk动效</t>
+          <t>【技术需求】语音房进房背景优化</t>
         </is>
       </c>
       <c r="D10" s="1" t="n">
-        <v>44984</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>44985</v>
+        <v>45050</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>刘志鸿</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>张振东1</t>
+          <t>王承庆</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>许英俊2.5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>刘志鸿1.5</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Android</t>
         </is>
       </c>
     </row>
@@ -980,48 +936,45 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Android/iOS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>娱乐Tab加载优化</t>
+          <t>【技术需求】通用广播横幅优化</t>
         </is>
       </c>
       <c r="D11" s="1" t="n">
-        <v>44987</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>44991</v>
+        <v>45058</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>陈学宇</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+          <t>许乐峰</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>王承庆</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>王淦鑫2.5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>陈学宇</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>陈学宇3</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>郑俊1+2</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Android</t>
         </is>
       </c>
     </row>
@@ -1038,43 +991,30 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>房间上下滑的体验优化</t>
+          <t>【Android技术需求】日志文件拆分</t>
         </is>
       </c>
       <c r="D12" s="1" t="n">
-        <v>44981</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>44985</v>
+        <v>45044</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>舒强睿</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>王承庆2；林传辉1</t>
+          <t>--</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>陈学宇1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>郭俊杰2</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Android</t>
         </is>
       </c>
     </row>
@@ -1091,43 +1031,30 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>【Android技术需求】统一框架代码独立</t>
+          <t>【Android技术需求】云游戏SDK升级</t>
         </is>
       </c>
       <c r="D13" s="1" t="n">
-        <v>44988</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>44991</v>
+        <v>45043</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>舒强睿；梁国杰</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>陈学宇</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>舒强睿</t>
+          <t>林传辉</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>舒强睿4</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>刘志鸿1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Android</t>
         </is>
       </c>
     </row>
@@ -1139,48 +1066,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Android/iOS</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>【插入需求】福利大厅改版推广活动</t>
+          <t>【Android技术需求】模板布局优化</t>
         </is>
       </c>
       <c r="D14" s="1" t="n">
-        <v>44988</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>44992</v>
+        <v>45057</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>欧泳楠</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>刘志鸿</t>
+          <t>陈学宇</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>韦小虹1</t>
+          <t>黄建硕</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>刘志鸿4</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>林立坚4；陈楷林3</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>关啟华4；曾文帜6+1；余连珠1.5+0.5</t>
+          <t>陈学宇5；胡佳婷3；王淦鑫0.5</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Android</t>
         </is>
       </c>
     </row>
@@ -1192,48 +1106,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Android/iOS</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>【插入需求】bs2域名替换bos源站域名</t>
+          <t>【Android技术需求】活动挂件复用优化</t>
         </is>
       </c>
       <c r="D15" s="1" t="n">
-        <v>44984</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>44986</v>
+        <v>45056</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>陈振宇</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>陈学宇</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>吴佳冰2</t>
+          <t>林传辉</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>陈学宇0.5</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>陈振宇0.5</t>
+          <t>刘志鸿3.5</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Android</t>
         </is>
       </c>
     </row>
@@ -1245,48 +1146,67 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Android/iOS</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>历史版本合入验证分支</t>
+          <t>结构化日志补齐</t>
         </is>
       </c>
       <c r="D16" s="1" t="n">
-        <v>44980</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>44981</v>
+        <v>45055</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>梁赐恒</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>刘志鸿</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>林传辉1；王承庆1；张振东1</t>
+          <t>--</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>舒强睿2</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>梁国杰6.5</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Yo语音</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>【Android技术需求】脚本整理与统一</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>舒强睿</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Android</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,6 +1285,11 @@
           <t>后台</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>测试分端</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1374,43 +1299,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Android/iOS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财富墙与周星墙优化</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>45050</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>孙宇湉</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>周衡1.5</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>iOS</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>【技术需求】接美颜中台 &amp; 优化美颜效果</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>44977</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>44984</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>黄培然</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>吴欢</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>吴欢6.5</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>易海洋16</t>
         </is>
       </c>
     </row>
@@ -1422,48 +1334,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Android/iOS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>告白动效调整与告白礼物飞机广播</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>孙宇湉</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>许乐峰2.5；吴灶洲0.5</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>iOS</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>IM交互优化</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>44986</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>44991</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>黄培然</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>姚振兴</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>姚振兴7.5；周衡2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>关啟华2</t>
         </is>
       </c>
     </row>
@@ -1475,48 +1369,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Android/iOS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LOGO&amp;默认头像调整</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>45063</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>黄培然</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>朱泳嘉2.5</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>iOS</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>IV1音视频通话</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>44985</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>44991</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>黄培然</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>李汇丰</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>姚振兴4；吴欢12.5；廖津津13.5；蓝方龙7.5；王世界7.5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>陈振宇；李伟宙7+3</t>
         </is>
       </c>
     </row>
@@ -1528,48 +1404,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Android/iOS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交友&amp;宝贝送礼数量列表优化</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>45056</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>许凯琪</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>吴灶洲2.5</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>iOS</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>福利大厅改版&amp;任务调整</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>44985</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>44991</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>马坚鑫</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>邓喜健</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>周衡4.5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>林永保4.5；陈安妮10.5</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>陈侠专12+2</t>
         </is>
       </c>
     </row>
@@ -1581,48 +1439,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Android/iOS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yo语音IM举报用户uid区分</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>45044</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>黄培然</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>姚振兴1.5</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>iOS</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>基础频道优化</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>44987</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>44991</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>陈嘉雯</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>许乐峰</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>朱泳嘉6.5；许乐峰14；王世界6.5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>朱国升4</t>
         </is>
       </c>
     </row>
@@ -1634,48 +1474,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Android/iOS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上下滑逻辑调整</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>45051</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>黄培然</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>朱泳嘉3.5</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>iOS</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>用户、房间关注及语音房优化</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>44984</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>44987</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>陈嘉雯</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>王世界</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>王世界2；朱泳嘉9；吴灶洲3</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>曾远4+1</t>
         </is>
       </c>
     </row>
@@ -1687,48 +1509,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Android/iOS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>隐私合规需求</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>45054</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>黄培然</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>廖津津2.5</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>iOS</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>用户反馈优化</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>44979</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>44984</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>劳若蘅</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>吴灶洲3</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>陈高洁1</t>
         </is>
       </c>
     </row>
@@ -1740,48 +1544,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Android/iOS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>【技术需求】语音房进房背景优化</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>45050</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>刘志鸿</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>廖津津2</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>iOS</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>【插入需求】福利大厅改版推广活动</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>44988</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>44992</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>欧泳楠</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>刘志鸿</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>周衡4</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>林立坚4；陈楷林3</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>关啟华4；曾文帜6+1；余连珠1.5+0.5</t>
         </is>
       </c>
     </row>
@@ -1793,43 +1579,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Android/iOS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>【技术需求】通用广播横幅优化</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>45058</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>许乐峰</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>许乐峰3</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>iOS</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>【插入需求】bs2域名替换bos源站域名</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>44984</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>44986</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>陈振宇</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>周衡0.5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>陈振宇0.5</t>
         </is>
       </c>
     </row>
@@ -1846,18 +1619,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>历史版本合入验证分支</t>
+          <t>【ios】交友接入营收中间件</t>
         </is>
       </c>
       <c r="D11" s="1" t="n">
-        <v>44980</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>44981</v>
+        <v>45052</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>梁赐恒</t>
+          <t>许凯琪</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1865,24 +1635,89 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>吴灶洲2</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>吴灶洲16（4）</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Yo语音</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Android/iOS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>yyp/http/pb并发请求监控</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>吴欢</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>蓝方龙</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>蓝方龙6</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Yo语音</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>优化基础模板组件加载流程</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>45058</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>王世界</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>王世界6.5；许乐峰4；周衡1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>iOS</t>
         </is>
       </c>
     </row>

--- a/AccountManage/static/excel/schedule.xlsx
+++ b/AccountManage/static/excel/schedule.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,30 +459,25 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>技术负责人</t>
+          <t>测试负责人</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>测试负责人</t>
+          <t>客户端</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>客户端</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>后台</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
-        <is>
-          <t>后台</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
         <is>
           <t>测试分端</t>
         </is>
@@ -507,32 +502,35 @@
       <c r="D2" s="1" t="n">
         <v>45058</v>
       </c>
+      <c r="E2" s="1" t="n">
+        <v>45063</v>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>孙宇湉</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>王承庆3</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>王承庆</t>
+          <t>李松12</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>李松12</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>林永保3+0.5</t>
+          <t>陈高洁0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>陈高洁0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -557,32 +555,35 @@
       <c r="D3" s="1" t="n">
         <v>45061</v>
       </c>
+      <c r="E3" s="1" t="n">
+        <v>45064</v>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>孙宇湉</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>张振东3</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>张振东</t>
+          <t>胡佳婷3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>胡佳婷3</t>
+          <t>梁威平0.5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>梁威平0.5</t>
+          <t>郑俊1；陈侠专1+0.5;丁拥0.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
-        <is>
-          <t>郑俊1；陈侠专1+0.5;丁拥0.5</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -607,32 +608,35 @@
       <c r="D4" s="1" t="n">
         <v>45063</v>
       </c>
+      <c r="E4" s="1" t="n">
+        <v>45064</v>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>黄培然</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>林传辉2</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>林传辉</t>
+          <t>梁国杰2.5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>梁国杰2.5</t>
+          <t>张海丰1.5+0.5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>张海丰1.5+0.5</t>
+          <t>陈高洁1+1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
-        <is>
-          <t>陈高洁1+1</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -657,32 +661,35 @@
       <c r="D5" s="1" t="n">
         <v>45056</v>
       </c>
+      <c r="E5" s="1" t="n">
+        <v>45058</v>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>许凯琪</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>张振东2</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>张振东</t>
+          <t>舒强睿2.5</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>舒强睿2.5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>李启华1+1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
-        <is>
-          <t>李启华1+1</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -707,32 +714,35 @@
       <c r="D6" s="1" t="n">
         <v>45044</v>
       </c>
+      <c r="E6" s="1" t="n">
+        <v>45056</v>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>黄培然</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>张振东2</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>张振东</t>
+          <t>李勇1.5</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>李勇1.5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>陈振宇1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>陈振宇1</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -757,32 +767,35 @@
       <c r="D7" s="1" t="n">
         <v>45051</v>
       </c>
+      <c r="E7" s="1" t="n">
+        <v>45056</v>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>黄培然</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>黄建硕3</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>黄建硕</t>
+          <t>陈学宇3.5</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>陈学宇3.5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>陈高洁1；何清亮2+1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
-        <is>
-          <t>陈高洁1；何清亮2+1</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -807,19 +820,27 @@
       <c r="D8" s="1" t="n">
         <v>45057</v>
       </c>
+      <c r="E8" s="1" t="n">
+        <v>45062</v>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>黄培然</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>林传辉3</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>林传辉</t>
+          <t>舒强睿3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>舒强睿3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -828,11 +849,6 @@
         </is>
       </c>
       <c r="K8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -857,19 +873,27 @@
       <c r="D9" s="1" t="n">
         <v>45051</v>
       </c>
+      <c r="E9" s="1" t="n">
+        <v>45052</v>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>陈嘉雯</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>黄建硕1</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>黄建硕</t>
+          <t>王淦鑫4</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>王淦鑫4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -878,11 +902,6 @@
         </is>
       </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -901,28 +920,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>【技术需求】语音房进房背景优化</t>
+          <t>语音房进房背景优化</t>
         </is>
       </c>
       <c r="D10" s="1" t="n">
         <v>45050</v>
       </c>
+      <c r="E10" s="1" t="n">
+        <v>45058</v>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>刘志鸿</t>
+          <t>陈嘉雯</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>王承庆3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>王承庆</t>
+          <t>刘志鸿1.5</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>刘志鸿1.5</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -941,38 +973,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>【技术需求】通用广播横幅优化</t>
+          <t>通用广播横幅优化</t>
         </is>
       </c>
       <c r="D11" s="1" t="n">
         <v>45058</v>
       </c>
+      <c r="E11" s="1" t="n">
+        <v>45064</v>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>许乐峰</t>
+          <t>许凯琪</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>王承庆3</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>王承庆</t>
+          <t>王淦鑫2.5</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>王淦鑫2.5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>郑俊1+2</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
-        <is>
-          <t>郑俊1+2</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -997,22 +1032,35 @@
       <c r="D12" s="1" t="n">
         <v>45044</v>
       </c>
+      <c r="E12" s="1" t="n">
+        <v>45064</v>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>舒强睿</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>郭俊杰2</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>郭俊杰2</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -1037,22 +1085,35 @@
       <c r="D13" s="1" t="n">
         <v>45043</v>
       </c>
+      <c r="E13" s="1" t="n">
+        <v>45051</v>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>陈学宇</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>王承庆2</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>林传辉</t>
+          <t>刘志鸿1</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>刘志鸿1</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -1077,22 +1138,35 @@
       <c r="D14" s="1" t="n">
         <v>45057</v>
       </c>
+      <c r="E14" s="1" t="n">
+        <v>45062</v>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>陈学宇</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>黄建硕2</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>黄建硕</t>
+          <t>陈学宇5；胡佳婷3；王淦鑫0.5</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>陈学宇5；胡佳婷3；王淦鑫0.5</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -1111,28 +1185,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>【Android技术需求】活动挂件复用优化</t>
+          <t>活动挂件复用优化</t>
         </is>
       </c>
       <c r="D15" s="1" t="n">
         <v>45056</v>
       </c>
+      <c r="E15" s="1" t="n">
+        <v>45058</v>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>陈学宇</t>
+          <t>陈嘉雯</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>黄健硕2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>林传辉</t>
+          <t>刘志鸿3.5</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>刘志鸿3.5</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -1157,22 +1244,35 @@
       <c r="D16" s="1" t="n">
         <v>45055</v>
       </c>
+      <c r="E16" s="1" t="n">
+        <v>45064</v>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>刘志鸿</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>梁国杰6.5</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>梁国杰6.5</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -1194,17 +1294,38 @@
           <t>【Android技术需求】脚本整理与统一</t>
         </is>
       </c>
+      <c r="D17" s="1" t="n">
+        <v>45063</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>45064</v>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>舒强睿</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
+          <t>舒强睿4</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -1221,7 +1342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1262,30 +1383,25 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>技术负责人</t>
+          <t>测试负责人</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>测试负责人</t>
+          <t>客户端</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>客户端</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>后台</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
-        <is>
-          <t>后台</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
         <is>
           <t>测试分端</t>
         </is>
@@ -1310,17 +1426,35 @@
       <c r="D2" s="1" t="n">
         <v>45050</v>
       </c>
+      <c r="E2" s="1" t="n">
+        <v>45063</v>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>孙宇湉</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>周衡1.5</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>周衡1.5</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+          <t>林永保</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>陈高洁</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>
@@ -1345,17 +1479,35 @@
       <c r="D3" s="1" t="n">
         <v>45061</v>
       </c>
+      <c r="E3" s="1" t="n">
+        <v>45064</v>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>孙宇湉</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>许乐峰2.5；吴灶洲0.5</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>许乐峰2.5；吴灶洲0.5</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+          <t>梁威平</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>郑俊；陈侠专;丁拥</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>
@@ -1380,17 +1532,35 @@
       <c r="D4" s="1" t="n">
         <v>45063</v>
       </c>
+      <c r="E4" s="1" t="n">
+        <v>45064</v>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>黄培然</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>朱泳嘉2.5</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>朱泳嘉2.5</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+          <t>张海丰</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>陈高洁</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>
@@ -1415,17 +1585,35 @@
       <c r="D5" s="1" t="n">
         <v>45056</v>
       </c>
+      <c r="E5" s="1" t="n">
+        <v>45058</v>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>许凯琪</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>吴灶洲2.5</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>吴灶洲2.5</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>李启华</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>
@@ -1450,17 +1638,35 @@
       <c r="D6" s="1" t="n">
         <v>45044</v>
       </c>
+      <c r="E6" s="1" t="n">
+        <v>45056</v>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>黄培然</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>姚振兴1.5</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>姚振兴1.5</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>陈振宇</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>
@@ -1485,17 +1691,35 @@
       <c r="D7" s="1" t="n">
         <v>45051</v>
       </c>
+      <c r="E7" s="1" t="n">
+        <v>45056</v>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>黄培然</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>朱泳嘉3.5</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>朱泳嘉3.5</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>陈高洁；何清亮</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>
@@ -1518,19 +1742,37 @@
         </is>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45054</v>
+        <v>45055</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>45062</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>黄培然</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>廖津津3.5</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>廖津津2.5</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>
@@ -1549,23 +1791,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>【技术需求】语音房进房背景优化</t>
+          <t>语音房进房背景优化</t>
         </is>
       </c>
       <c r="D9" s="1" t="n">
         <v>45050</v>
       </c>
+      <c r="E9" s="1" t="n">
+        <v>45058</v>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>刘志鸿</t>
+          <t>陈嘉雯</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>廖津津2</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>廖津津2</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>
@@ -1584,23 +1844,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>【技术需求】通用广播横幅优化</t>
+          <t>通用广播横幅优化</t>
         </is>
       </c>
       <c r="D10" s="1" t="n">
         <v>45058</v>
       </c>
+      <c r="E10" s="1" t="n">
+        <v>45064</v>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>许乐峰</t>
+          <t>许凯琪</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>许乐峰3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>许乐峰3</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>
@@ -1625,6 +1903,9 @@
       <c r="D11" s="1" t="n">
         <v>45052</v>
       </c>
+      <c r="E11" s="1" t="n">
+        <v>45057</v>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>许凯琪</t>
@@ -1632,15 +1913,25 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>林传辉4</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>吴灶洲16（4）</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>吴灶洲16（4）</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>
@@ -1654,7 +1945,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Android/iOS</t>
+          <t>iOS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1665,22 +1956,35 @@
       <c r="D12" s="1" t="n">
         <v>45061</v>
       </c>
+      <c r="E12" s="1" t="n">
+        <v>45064</v>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>吴欢</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>蓝方龙</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>蓝方龙</t>
+          <t>蓝方龙6</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>蓝方龙6</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>
@@ -1705,17 +2009,35 @@
       <c r="D13" s="1" t="n">
         <v>45058</v>
       </c>
+      <c r="E13" s="1" t="n">
+        <v>45064</v>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>王世界</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>黄建硕2；王承庆1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>王世界6.5；许乐峰4；周衡1</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>王世界6.5；许乐峰4；周衡1</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>

--- a/AccountManage/static/excel/schedule.xlsx
+++ b/AccountManage/static/excel/schedule.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,33 +862,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Android/iOS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安卓端分辨率较大问题的解决</t>
+          <t>【插入需求】魔法礼物</t>
         </is>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>45052</v>
+        <v>45064</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
+          <t>孙宇湉</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>黄建硕1</t>
+          <t>张振东0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>王淦鑫4</t>
+          <t>郭俊杰1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>丁拥0.5</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -920,28 +920,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>语音房进房背景优化</t>
+          <t>【插入需求】Yo语音娱乐页优化</t>
         </is>
       </c>
       <c r="D10" s="1" t="n">
-        <v>45050</v>
+        <v>45061</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
+          <t>黄培然</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>王承庆3</t>
+          <t>王承庆1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>刘志鸿1.5</t>
+          <t>李勇1.5</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>梁杰帆0.5</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -968,33 +968,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Android/iOS</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>通用广播横幅优化</t>
+          <t>安卓端分辨率较大问题的解决</t>
         </is>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45058</v>
+        <v>45051</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>45064</v>
+        <v>45052</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>许凯琪</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>王承庆3</t>
+          <t>黄建硕1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>王淦鑫2.5</t>
+          <t>王淦鑫4</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>郑俊1+2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1021,33 +1021,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Android/iOS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>【Android技术需求】日志文件拆分</t>
+          <t>语音房进房背景优化</t>
         </is>
       </c>
       <c r="D12" s="1" t="n">
-        <v>45044</v>
+        <v>45050</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>45064</v>
+        <v>45058</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>舒强睿</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>王承庆3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>郭俊杰2</t>
+          <t>刘志鸿1.5</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1074,33 +1074,33 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Android/iOS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>【Android技术需求】云游戏SDK升级</t>
+          <t>通用广播横幅优化</t>
         </is>
       </c>
       <c r="D13" s="1" t="n">
-        <v>45043</v>
+        <v>45058</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>45051</v>
+        <v>45064</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>陈学宇</t>
+          <t>许凯琪</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>王承庆2</t>
+          <t>王承庆3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>刘志鸿1</t>
+          <t>王淦鑫2.5</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>郑俊1+2</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1132,28 +1132,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>【Android技术需求】模板布局优化</t>
+          <t>【Android技术需求】日志文件拆分</t>
         </is>
       </c>
       <c r="D14" s="1" t="n">
-        <v>45057</v>
+        <v>45044</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>陈学宇</t>
+          <t>舒强睿</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>黄建硕2</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>陈学宇5；胡佳婷3；王淦鑫0.5</t>
+          <t>郭俊杰2</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1185,28 +1185,28 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>活动挂件复用优化</t>
+          <t>【Android技术需求】云游戏SDK升级</t>
         </is>
       </c>
       <c r="D15" s="1" t="n">
-        <v>45056</v>
+        <v>45043</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>45058</v>
+        <v>45051</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
+          <t>陈学宇</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>黄健硕2</t>
+          <t>王承庆2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>刘志鸿3.5</t>
+          <t>刘志鸿1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1238,28 +1238,28 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>结构化日志补齐</t>
+          <t>【Android技术需求】模板布局优化</t>
         </is>
       </c>
       <c r="D16" s="1" t="n">
-        <v>45055</v>
+        <v>45057</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>刘志鸿</t>
+          <t>陈学宇</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>黄建硕2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>梁国杰6.5</t>
+          <t>陈学宇5；胡佳婷3；王淦鑫0.5</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1291,41 +1291,147 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>活动挂件复用优化</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>45056</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>45058</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>陈嘉雯</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>黄健硕2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>刘志鸿3.5</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Yo语音</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>结构化日志补齐</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>刘志鸿</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>梁国杰6.5</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Yo语音</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>【Android技术需求】脚本整理与统一</t>
         </is>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D19" s="1" t="n">
         <v>45063</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E19" s="1" t="n">
         <v>45064</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>舒强睿</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>舒强睿4</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -1342,7 +1448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,18 +1897,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>语音房进房背景优化</t>
+          <t>【插入需求】魔法礼物</t>
         </is>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45050</v>
+        <v>45058</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>45058</v>
+        <v>45064</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
+          <t>孙宇湉</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1812,7 +1918,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>廖津津2</t>
+          <t>吴灶洲1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1822,7 +1928,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>丁拥</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1844,18 +1950,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>通用广播横幅优化</t>
+          <t>【插入需求】Yo语音娱乐页优化</t>
         </is>
       </c>
       <c r="D10" s="1" t="n">
-        <v>45058</v>
+        <v>45061</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>许凯琪</t>
+          <t>黄培然</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1865,7 +1971,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>许乐峰3</t>
+          <t>姚振兴1.5</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1875,7 +1981,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>梁杰帆</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1892,33 +1998,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>iOS</t>
+          <t>Android/iOS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>【ios】交友接入营收中间件</t>
+          <t>语音房进房背景优化</t>
         </is>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45052</v>
+        <v>45050</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>许凯琪</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>林传辉4</t>
+          <t>android</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>吴灶洲16（4）</t>
+          <t>廖津津2</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1945,33 +2051,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>iOS</t>
+          <t>Android/iOS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>yyp/http/pb并发请求监控</t>
+          <t>通用广播横幅优化</t>
         </is>
       </c>
       <c r="D12" s="1" t="n">
-        <v>45061</v>
+        <v>45058</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>45064</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>吴欢</t>
+          <t>许凯琪</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>蓝方龙</t>
+          <t>android</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>蓝方龙6</t>
+          <t>许乐峰3</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2003,41 +2109,200 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>【ios】交友接入营收中间件</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>45052</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>许凯琪</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>林传辉4</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>吴灶洲16（4）</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Yo语音</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>yyp/http/pb并发请求监控</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>吴欢</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>蓝方龙</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>蓝方龙6</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Yo语音</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>优化基础模板组件加载流程</t>
         </is>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D15" s="1" t="n">
         <v>45058</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E15" s="1" t="n">
         <v>45064</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>王世界</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>黄建硕2；王承庆1</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>王世界6.5；许乐峰4；周衡1</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Yo语音</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[iOS技术需求]断网重连请求堆积优化</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>吴欢</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>吴欢</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>吴欢2.5</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>

--- a/AccountManage/static/excel/schedule.xlsx
+++ b/AccountManage/static/excel/schedule.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>陈高洁1+1</t>
+          <t>陈高洁1+1；丁拥0.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -968,19 +968,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Android/iOS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安卓端分辨率较大问题的解决</t>
+          <t>【插入需求】自建房创建房间入口优化</t>
         </is>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45051</v>
+        <v>45062</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>45052</v>
+        <v>45064</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -989,22 +989,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>黄建硕1</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>王淦鑫4</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>王淦鑫0.5</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1021,19 +1011,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Android/iOS</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>语音房进房背景优化</t>
+          <t>安卓端分辨率较大问题的解决</t>
         </is>
       </c>
       <c r="D12" s="1" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>45058</v>
+        <v>45052</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1042,12 +1032,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>王承庆3</t>
+          <t>黄建硕1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>刘志鸿1.5</t>
+          <t>王淦鑫4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1079,18 +1069,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>通用广播横幅优化</t>
+          <t>语音房进房背景优化</t>
         </is>
       </c>
       <c r="D13" s="1" t="n">
+        <v>45050</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>45058</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>45064</v>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>许凯琪</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1100,7 +1090,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>王淦鑫2.5</t>
+          <t>刘志鸿1.5</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1110,7 +1100,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>郑俊1+2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1127,33 +1117,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Android/iOS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>【Android技术需求】日志文件拆分</t>
+          <t>通用广播横幅优化</t>
         </is>
       </c>
       <c r="D14" s="1" t="n">
-        <v>45044</v>
+        <v>45058</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>45064</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>舒强睿</t>
+          <t>许凯琪</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>王承庆3</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>郭俊杰2</t>
+          <t>王淦鑫2.5</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1163,7 +1153,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>郑俊1+2</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1185,28 +1175,28 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>【Android技术需求】云游戏SDK升级</t>
+          <t>【Android技术需求】日志文件拆分</t>
         </is>
       </c>
       <c r="D15" s="1" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>45051</v>
+        <v>45064</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>陈学宇</t>
+          <t>舒强睿</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>王承庆2</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>刘志鸿1</t>
+          <t>郭俊杰2</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1238,14 +1228,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>【Android技术需求】模板布局优化</t>
+          <t>【Android技术需求】云游戏SDK升级</t>
         </is>
       </c>
       <c r="D16" s="1" t="n">
-        <v>45057</v>
+        <v>45043</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>45062</v>
+        <v>45051</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1254,12 +1244,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>黄建硕2</t>
+          <t>王承庆2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>陈学宇5；胡佳婷3；王淦鑫0.5</t>
+          <t>刘志鸿1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1291,28 +1281,28 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>活动挂件复用优化</t>
+          <t>【Android技术需求】模板布局优化</t>
         </is>
       </c>
       <c r="D17" s="1" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
+          <t>陈学宇</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>黄健硕2</t>
+          <t>黄建硕2</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>刘志鸿3.5</t>
+          <t>陈学宇5；胡佳婷3；王淦鑫0.5</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1344,28 +1334,28 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>结构化日志补齐</t>
+          <t>活动挂件复用优化</t>
         </is>
       </c>
       <c r="D18" s="1" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>45064</v>
+        <v>45058</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>刘志鸿</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>黄健硕2</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>梁国杰6.5</t>
+          <t>刘志鸿3.5</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1397,41 +1387,127 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>【Android技术需求】脚本整理与统一</t>
+          <t>结构化日志补齐</t>
         </is>
       </c>
       <c r="D19" s="1" t="n">
-        <v>45063</v>
+        <v>45055</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>45064</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>刘志鸿</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>梁国杰6.5</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Yo语音</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>编译优化一期</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>45063</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>李勇8；梁国杰3</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Yo语音</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>【Android技术需求】脚本整理与统一</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>45063</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>舒强睿</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>舒强睿4</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -1448,7 +1524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2003,14 +2079,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>语音房进房背景优化</t>
+          <t>【插入需求】自建房创建房间入口优化</t>
         </is>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45050</v>
+        <v>45062</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>45058</v>
+        <v>45064</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2019,22 +2095,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>廖津津2</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>周衡0.5</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2056,18 +2122,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>通用广播横幅优化</t>
+          <t>语音房进房背景优化</t>
         </is>
       </c>
       <c r="D12" s="1" t="n">
+        <v>45050</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <v>45058</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <v>45064</v>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>许凯琪</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2077,7 +2143,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>许乐峰3</t>
+          <t>廖津津2</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2104,19 +2170,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>iOS</t>
+          <t>Android/iOS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>【ios】交友接入营收中间件</t>
+          <t>通用广播横幅优化</t>
         </is>
       </c>
       <c r="D13" s="1" t="n">
-        <v>45052</v>
+        <v>45058</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>45057</v>
+        <v>45064</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2125,12 +2191,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>林传辉4</t>
+          <t>android</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>吴灶洲16（4）</t>
+          <t>许乐峰3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2162,28 +2228,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>yyp/http/pb并发请求监控</t>
+          <t>【ios】交友接入营收中间件</t>
         </is>
       </c>
       <c r="D14" s="1" t="n">
-        <v>45061</v>
+        <v>45052</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>45064</v>
+        <v>45057</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>吴欢</t>
+          <t>许凯琪</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>蓝方龙</t>
+          <t>林传辉4</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>蓝方龙6</t>
+          <t>吴灶洲16</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2215,28 +2281,28 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>优化基础模板组件加载流程</t>
+          <t>yyp/http/pb并发请求监控</t>
         </is>
       </c>
       <c r="D15" s="1" t="n">
-        <v>45058</v>
+        <v>45061</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>45064</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>王世界</t>
+          <t>吴欢</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>黄建硕2；王承庆1</t>
+          <t>蓝方龙</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>王世界6.5；许乐峰4；周衡1</t>
+          <t>蓝方龙6</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2268,41 +2334,94 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[iOS技术需求]断网重连请求堆积优化</t>
+          <t>优化基础模板组件加载流程</t>
         </is>
       </c>
       <c r="D16" s="1" t="n">
-        <v>45055</v>
+        <v>45058</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>45064</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>王世界</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>黄建硕2；王承庆1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>王世界6.5；许乐峰4；周衡1</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Yo语音</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[iOS技术需求]断网重连请求堆积优化</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>45064</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>吴欢</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>吴欢</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>吴欢2.5</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>

--- a/AccountManage/static/excel/schedule.xlsx
+++ b/AccountManage/static/excel/schedule.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,28 +496,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财富墙与周星墙优化</t>
+          <t>语音房房间搜索优化</t>
         </is>
       </c>
       <c r="D2" s="1" t="n">
-        <v>45058</v>
+        <v>45117</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>45063</v>
+        <v>45132</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>孙宇湉</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>王承庆3</t>
+          <t>武韶博2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>李松12</t>
+          <t>李勇2</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>陈高洁0</t>
+          <t>李清洋1+1；赖鸿智2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -549,14 +549,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>告白动效调整与告白礼物飞机广播</t>
+          <t>app语音房大头贴礼物</t>
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45061</v>
+        <v>45132</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>45064</v>
+        <v>45134</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -565,22 +565,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>张振东3</t>
+          <t>张振东2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>胡佳婷3</t>
+          <t>郭俊杰4</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>梁威平0.5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>郑俊1；陈侠专1+0.5;丁拥0.5</t>
+          <t>丁拥0.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -602,38 +602,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LOGO&amp;默认头像调整</t>
+          <t>UGC语音房</t>
         </is>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45063</v>
+        <v>45134</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45064</v>
+        <v>45140</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>黄培然</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>林传辉2</t>
+          <t>黄健硕4；江华4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>梁国杰2.5</t>
+          <t>刘志鸿5；李勇2；李汇丰2.5；梁国杰2.5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>张海丰1.5+0.5</t>
+          <t>林永保2.5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>陈高洁1+1；丁拥0.5</t>
+          <t>夏集球6.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -655,28 +655,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交友&amp;宝贝送礼数量列表优化</t>
+          <t>语音房支持小游戏</t>
         </is>
       </c>
       <c r="D5" s="1" t="n">
-        <v>45056</v>
+        <v>45139</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>45058</v>
+        <v>45145</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>许凯琪</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>张振东2</t>
+          <t>林传辉4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>舒强睿2.5</t>
+          <t>王淦鑫6</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>李启华1+1</t>
+          <t>朱国升3.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -708,14 +708,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yo语音IM举报用户uid区分</t>
+          <t>证照露出</t>
         </is>
       </c>
       <c r="D6" s="1" t="n">
-        <v>45044</v>
+        <v>45140</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>45056</v>
+        <v>45145</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -724,22 +724,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>张振东2</t>
+          <t>武韶博1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>李勇1.5</t>
+          <t>胡佳婷0.5</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>梁晓明1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>陈振宇1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -761,14 +761,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上下滑逻辑调整</t>
+          <t>补充权限收集露出</t>
         </is>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45051</v>
+        <v>45134</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>45056</v>
+        <v>45139</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -777,12 +777,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>黄建硕3</t>
+          <t>林传辉2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>陈学宇3.5</t>
+          <t>舒强睿2.5</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>陈高洁1；何清亮2+1</t>
+          <t>吴永裕1+1；陈侠专1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -814,14 +814,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>隐私合规需求</t>
+          <t>首页推荐—开黑tab取数逻辑</t>
         </is>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45057</v>
+        <v>45135</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>45062</v>
+        <v>45145</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -830,12 +830,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>林传辉3</t>
+          <t>黄建硕2</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>舒强睿3</t>
+          <t>刘志鸿1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>郭利平1+0.5；冼锦荣2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -867,38 +867,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>【插入需求】魔法礼物</t>
+          <t>开黑车队兼容用户语音房</t>
         </is>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45058</v>
+        <v>45139</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>45064</v>
+        <v>45141</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>孙宇湉</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>张振东0</t>
+          <t>王承庆2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>郭俊杰1</t>
+          <t>李汇丰2</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>林永保1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>丁拥0.5</t>
+          <t>郭利平2+0.5</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -920,28 +920,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>【插入需求】Yo语音娱乐页优化</t>
+          <t>主持接待工具</t>
         </is>
       </c>
       <c r="D10" s="1" t="n">
-        <v>45061</v>
+        <v>45140</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>45062</v>
+        <v>45145</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>黄培然</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>王承庆1</t>
+          <t>江华3；张俊华1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>李勇1.5</t>
+          <t>邓喜健5</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>梁杰帆0.5</t>
+          <t>曾远4</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -973,28 +973,40 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>【插入需求】自建房创建房间入口优化</t>
+          <t>【技术需求】React-Native基础建设（自测）</t>
         </is>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45062</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>45064</v>
+        <v>45138</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
+          <t>梁国杰</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>王淦鑫0.5</t>
+          <t>梁国杰3.5；李勇5；邓喜健2；王淦鑫2</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1016,28 +1028,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安卓端分辨率较大问题的解决</t>
+          <t>[Android 技术需求] MMKV持久化存储优化</t>
         </is>
       </c>
       <c r="D12" s="1" t="n">
-        <v>45051</v>
+        <v>45132</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>45052</v>
+        <v>45133</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
+          <t>舒强睿</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>黄建硕1</t>
+          <t>林传辉1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>王淦鑫4</t>
+          <t>舒强睿2.5</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,33 +1076,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Android/iOS</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>语音房进房背景优化</t>
+          <t>【Android技术需求】包体优化二期【自测】</t>
         </is>
       </c>
       <c r="D13" s="1" t="n">
-        <v>45050</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>45058</v>
+        <v>45135</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
+          <t>陈学宇</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>王承庆3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>刘志鸿1.5</t>
+          <t>陈学宇3.5；邓喜健2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1117,33 +1131,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Android/iOS</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>通用广播横幅优化</t>
+          <t>【Androiud技术需求】Yo语音升级系统判断设备类型下发64位包</t>
         </is>
       </c>
       <c r="D14" s="1" t="n">
-        <v>45058</v>
+        <v>45127</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>45064</v>
+        <v>45134</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>许凯琪</t>
+          <t>舒强睿</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>王承庆3</t>
+          <t>林传辉1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>王淦鑫2.5</t>
+          <t>舒强睿</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1153,361 +1167,10 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>郑俊1+2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>【Android技术需求】日志文件拆分</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>45044</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>45064</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>舒强睿</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>郭俊杰2</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>【Android技术需求】云游戏SDK升级</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>45043</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>45051</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>陈学宇</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>王承庆2</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>刘志鸿1</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>【Android技术需求】模板布局优化</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>45057</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>45062</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>陈学宇</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>黄建硕2</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>陈学宇5；胡佳婷3；王淦鑫0.5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>活动挂件复用优化</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>45056</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>45058</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>陈嘉雯</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>黄健硕2</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>刘志鸿3.5</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>结构化日志补齐</t>
-        </is>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>45055</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>45064</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>刘志鸿</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>梁国杰6.5</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>编译优化一期</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>45063</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>45064</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>李勇8；梁国杰3</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>【Android技术需求】脚本整理与统一</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>45063</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>45064</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>舒强睿</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>舒强睿4</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
@@ -1524,7 +1187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1602,18 +1265,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财富墙与周星墙优化</t>
+          <t>语音房房间搜索优化</t>
         </is>
       </c>
       <c r="D2" s="1" t="n">
-        <v>45050</v>
+        <v>45117</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>45063</v>
+        <v>45132</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>孙宇湉</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1623,17 +1286,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>周衡1.5</t>
+          <t>姚振兴2</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>林永保</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>陈高洁</t>
+          <t>李清洋；赖鸿智</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1655,14 +1318,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>告白动效调整与告白礼物飞机广播</t>
+          <t>app语音房大头贴礼物</t>
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45061</v>
+        <v>45133</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>45064</v>
+        <v>45134</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1676,17 +1339,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>许乐峰2.5；吴灶洲0.5</t>
+          <t>朱泳嘉4.5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>梁威平</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>郑俊；陈侠专;丁拥</t>
+          <t>丁拥</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1708,18 +1371,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LOGO&amp;默认头像调整</t>
+          <t>UGC语音房</t>
         </is>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45063</v>
+        <v>45134</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45064</v>
+        <v>45140</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>黄培然</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1729,17 +1392,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>朱泳嘉2.5</t>
+          <t>周衡5；吴灶洲1；吴欢2；许乐峰2.5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>张海丰</t>
+          <t>林永保</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>陈高洁</t>
+          <t>朱国升；夏集球</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1761,18 +1424,18 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交友&amp;宝贝送礼数量列表优化</t>
+          <t>语音房支持小游戏</t>
         </is>
       </c>
       <c r="D5" s="1" t="n">
-        <v>45056</v>
+        <v>45139</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>45058</v>
+        <v>45145</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>许凯琪</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1782,7 +1445,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>吴灶洲2.5</t>
+          <t>王世界4；廖津津1；姚振兴1.5；吴灶洲4</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1792,7 +1455,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>李启华</t>
+          <t>朱国升</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1814,14 +1477,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yo语音IM举报用户uid区分</t>
+          <t>证照露出</t>
         </is>
       </c>
       <c r="D6" s="1" t="n">
-        <v>45044</v>
+        <v>45140</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>45056</v>
+        <v>45145</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1835,17 +1498,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>姚振兴1.5</t>
+          <t>吴欢0.5</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>梁晓明</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>陈振宇</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1867,14 +1530,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上下滑逻辑调整</t>
+          <t>补充权限收集露出</t>
         </is>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45051</v>
+        <v>45135</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>45056</v>
+        <v>45139</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1888,7 +1551,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>朱泳嘉3.5</t>
+          <t>吴欢2.5</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1898,7 +1561,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>陈高洁；何清亮</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1920,14 +1583,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>隐私合规需求</t>
+          <t>首页推荐—开黑tab取数逻辑</t>
         </is>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45055</v>
+        <v>45135</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>45062</v>
+        <v>45145</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1941,7 +1604,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>廖津津3.5</t>
+          <t>姚振兴1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1951,7 +1614,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>郭利平；冼锦荣</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1973,18 +1636,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>【插入需求】魔法礼物</t>
+          <t>开黑车队兼容用户语音房</t>
         </is>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45058</v>
+        <v>45139</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>45064</v>
+        <v>45141</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>孙宇湉</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1994,17 +1657,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>吴灶洲1</t>
+          <t>许乐峰2</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>林永保</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>丁拥</t>
+          <t>郭利平</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2026,18 +1689,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>【插入需求】Yo语音娱乐页优化</t>
+          <t>主持接待工具</t>
         </is>
       </c>
       <c r="D10" s="1" t="n">
-        <v>45061</v>
+        <v>45140</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>45062</v>
+        <v>45145</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>黄培然</t>
+          <t>陈嘉雯</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2047,7 +1710,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>姚振兴1.5</t>
+          <t>姚振兴5</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2057,7 +1720,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>梁杰帆</t>
+          <t>曾远</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2079,28 +1742,40 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>【插入需求】自建房创建房间入口优化</t>
+          <t>【技术需求】React-Native基础建设（自测）</t>
         </is>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45062</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>45064</v>
+        <v>45140</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
+          <t>廖津津</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>周衡0.5</t>
+          <t>姚振兴2；廖津津3；朱泳嘉2；王世界4；吴灶洲1</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2117,33 +1792,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Android/iOS</t>
+          <t>iOS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>语音房进房背景优化</t>
+          <t>【iOS技术需求】渲染优化二期</t>
         </is>
       </c>
       <c r="D12" s="1" t="n">
-        <v>45050</v>
+        <v>45135</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>45058</v>
+        <v>45142</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>陈嘉雯</t>
+          <t>王世界</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>武韶博3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>廖津津2</t>
+          <t>许乐峰3.5；王世界2</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2157,271 +1832,6 @@
         </is>
       </c>
       <c r="K12" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Android/iOS</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>通用广播横幅优化</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>45058</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>45064</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>许凯琪</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>许乐峰3</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>【ios】交友接入营收中间件</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>45052</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>45057</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>许凯琪</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>林传辉4</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>吴灶洲16</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>yyp/http/pb并发请求监控</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>45061</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>45064</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>吴欢</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>蓝方龙</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>蓝方龙6</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>优化基础模板组件加载流程</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>45058</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>45064</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>王世界</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>黄建硕2；王承庆1</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>王世界6.5；许乐峰4；周衡1</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Yo语音</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>iOS</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[iOS技术需求]断网重连请求堆积优化</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>45055</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>45064</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>吴欢</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>吴欢</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>吴欢2.5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>
